--- a/SDWGAME/Assets/Resources/DataList/ELM_DataList.xlsx
+++ b/SDWGAME/Assets/Resources/DataList/ELM_DataList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singi\Documents\GitHub\2019outsource\multicultural-game-challenge\SDWGAME\Assets\Resources\DataList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C0DF78-1929-49AE-A8C0-B26960C90A4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2006D4-E1D9-4AB2-AAD0-39DD0971E2C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{7DA9DAFE-826A-4A2F-8007-BA43BF58A5F7}"/>
+    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{7DA9DAFE-826A-4A2F-8007-BA43BF58A5F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Level1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="1063">
   <si>
     <t>Stage</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1092,25 +1092,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>det_1-01</t>
-  </si>
-  <si>
-    <t>det_1-02</t>
-  </si>
-  <si>
-    <t>det_1-03</t>
-  </si>
-  <si>
-    <t>det_1-04</t>
-  </si>
-  <si>
-    <t>det_1-05</t>
-  </si>
-  <si>
-    <t>det_1-02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>원자극</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1649,6 +1630,1882 @@
   </si>
   <si>
     <t>앙원경</t>
+  </si>
+  <si>
+    <t>D1_1_W1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W3</t>
+  </si>
+  <si>
+    <t>D1_1_W4</t>
+  </si>
+  <si>
+    <t>D1_1_W5</t>
+  </si>
+  <si>
+    <t>D1_1_W6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W8</t>
+  </si>
+  <si>
+    <t>D1_1_W9</t>
+  </si>
+  <si>
+    <t>D1_1_W10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W12</t>
+  </si>
+  <si>
+    <t>D1_2_W13</t>
+  </si>
+  <si>
+    <t>D1_2_W14</t>
+  </si>
+  <si>
+    <t>D1_2_W15</t>
+  </si>
+  <si>
+    <t>D1_2_W16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W17</t>
+  </si>
+  <si>
+    <t>D1_2_W18</t>
+  </si>
+  <si>
+    <t>D1_2_W19</t>
+  </si>
+  <si>
+    <t>D1_2_W20</t>
+  </si>
+  <si>
+    <t>D1_3_W21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W22</t>
+  </si>
+  <si>
+    <t>D1_3_W23</t>
+  </si>
+  <si>
+    <t>D1_3_W24</t>
+  </si>
+  <si>
+    <t>D1_3_W25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W26</t>
+  </si>
+  <si>
+    <t>D1_3_W27</t>
+  </si>
+  <si>
+    <t>D1_3_W28</t>
+  </si>
+  <si>
+    <t>D1_3_W29</t>
+  </si>
+  <si>
+    <t>D1_3_W30</t>
+  </si>
+  <si>
+    <t>원자극음성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W1_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W2_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W3_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W4_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W5_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W6_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W7_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W8_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W9_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W10_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W11_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W12_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W13_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W14_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W15_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W16_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W17_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W18_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W19_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W20_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W21_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W22_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W23_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W24_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W25_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W26_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W27_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W28_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W29_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W30_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W1_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W2_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W3_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W4_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W5_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W6_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W7_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W8_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W9_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W10_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W11_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W12_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W13_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W14_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W15_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W16_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W17_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W18_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W19_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W20_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W21_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W22_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W23_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W24_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W25_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W26_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W27_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W28_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W29_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W30_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W1_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W2_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W3_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W4_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W5_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W6_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W7_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W8_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W9_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W10_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W11_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W12_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W13_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W14_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W15_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W16_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W17_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W18_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W19_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W20_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W21_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W22_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W23_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W24_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W25_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W26_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W27_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W28_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W29_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W30_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W1_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W2_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W3_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W4_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W5_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W6_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W7_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W8_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W9_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W10_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W11_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W12_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W13_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W14_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W15_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W16_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W17_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W18_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W19_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W20_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W21_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W22_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W23_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W24_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W25_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W26_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W27_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W28_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W29_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W30_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W1_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W2_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W3_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W4_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W5_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W6_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W7_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W8_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W9_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_1_W10_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W11_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W12_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W13_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W14_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W15_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W16_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W17_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W18_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W19_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_2_W20_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W21_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W22_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W23_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W24_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W25_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W26_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W27_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W28_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W29_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1_3_W30_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_1_W1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_1_W2</t>
+  </si>
+  <si>
+    <t>D2_1_W3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_1_W4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_1_W5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_1_W6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_1_W7</t>
+  </si>
+  <si>
+    <t>D2_1_W8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_1_W9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_1_W10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_2_W11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_2_W12</t>
+  </si>
+  <si>
+    <t>D2_2_W13</t>
+  </si>
+  <si>
+    <t>D2_2_W14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_2_W15</t>
+  </si>
+  <si>
+    <t>D2_2_W16</t>
+  </si>
+  <si>
+    <t>D2_2_W17</t>
+  </si>
+  <si>
+    <t>D2_2_W18</t>
+  </si>
+  <si>
+    <t>D2_2_W19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_2_W20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_3_W21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_3_W22</t>
+  </si>
+  <si>
+    <t>D2_3_W23</t>
+  </si>
+  <si>
+    <t>D2_3_W24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_3_W25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_3_W26</t>
+  </si>
+  <si>
+    <t>D2_3_W27</t>
+  </si>
+  <si>
+    <t>D2_3_W28</t>
+  </si>
+  <si>
+    <t>D2_3_W29</t>
+  </si>
+  <si>
+    <t>D2_3_W30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_1_W1_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_1_W2_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_1_W3_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_1_W4_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_1_W5_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_1_W6_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_1_W7_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_1_W8_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_1_W9_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_1_W10_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_2_W11_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_2_W12_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_2_W13_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_2_W14_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_2_W15_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_2_W16_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_2_W17_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_2_W18_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_2_W19_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_2_W20_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_3_W21_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_3_W22_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_3_W23_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_3_W24_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_3_W25_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_3_W26_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_3_W27_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_3_W28_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_3_W29_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_3_W30_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2_1_W1_1</t>
+  </si>
+  <si>
+    <t>D2_1_W2_1</t>
+  </si>
+  <si>
+    <t>D2_1_W3_1</t>
+  </si>
+  <si>
+    <t>D2_1_W4_1</t>
+  </si>
+  <si>
+    <t>D2_1_W5_1</t>
+  </si>
+  <si>
+    <t>D2_1_W6_1</t>
+  </si>
+  <si>
+    <t>D2_1_W7_1</t>
+  </si>
+  <si>
+    <t>D2_1_W8_1</t>
+  </si>
+  <si>
+    <t>D2_1_W9_1</t>
+  </si>
+  <si>
+    <t>D2_1_W10_1</t>
+  </si>
+  <si>
+    <t>D2_2_W11_1</t>
+  </si>
+  <si>
+    <t>D2_2_W12_1</t>
+  </si>
+  <si>
+    <t>D2_2_W13_1</t>
+  </si>
+  <si>
+    <t>D2_2_W14_1</t>
+  </si>
+  <si>
+    <t>D2_2_W15_1</t>
+  </si>
+  <si>
+    <t>D2_2_W16_1</t>
+  </si>
+  <si>
+    <t>D2_2_W17_1</t>
+  </si>
+  <si>
+    <t>D2_2_W18_1</t>
+  </si>
+  <si>
+    <t>D2_2_W19_1</t>
+  </si>
+  <si>
+    <t>D2_2_W20_1</t>
+  </si>
+  <si>
+    <t>D2_3_W21_1</t>
+  </si>
+  <si>
+    <t>D2_3_W22_1</t>
+  </si>
+  <si>
+    <t>D2_3_W23_1</t>
+  </si>
+  <si>
+    <t>D2_3_W24_1</t>
+  </si>
+  <si>
+    <t>D2_3_W25_1</t>
+  </si>
+  <si>
+    <t>D2_3_W26_1</t>
+  </si>
+  <si>
+    <t>D2_3_W27_1</t>
+  </si>
+  <si>
+    <t>D2_3_W28_1</t>
+  </si>
+  <si>
+    <t>D2_3_W29_1</t>
+  </si>
+  <si>
+    <t>D2_3_W30_1</t>
+  </si>
+  <si>
+    <t>D2_1_W1_2</t>
+  </si>
+  <si>
+    <t>D2_1_W2_2</t>
+  </si>
+  <si>
+    <t>D2_1_W3_2</t>
+  </si>
+  <si>
+    <t>D2_1_W4_2</t>
+  </si>
+  <si>
+    <t>D2_1_W5_2</t>
+  </si>
+  <si>
+    <t>D2_1_W6_2</t>
+  </si>
+  <si>
+    <t>D2_1_W7_2</t>
+  </si>
+  <si>
+    <t>D2_1_W8_2</t>
+  </si>
+  <si>
+    <t>D2_1_W9_2</t>
+  </si>
+  <si>
+    <t>D2_1_W10_2</t>
+  </si>
+  <si>
+    <t>D2_2_W11_2</t>
+  </si>
+  <si>
+    <t>D2_2_W12_2</t>
+  </si>
+  <si>
+    <t>D2_2_W13_2</t>
+  </si>
+  <si>
+    <t>D2_2_W14_2</t>
+  </si>
+  <si>
+    <t>D2_2_W15_2</t>
+  </si>
+  <si>
+    <t>D2_2_W16_2</t>
+  </si>
+  <si>
+    <t>D2_2_W17_2</t>
+  </si>
+  <si>
+    <t>D2_2_W18_2</t>
+  </si>
+  <si>
+    <t>D2_2_W19_2</t>
+  </si>
+  <si>
+    <t>D2_2_W20_2</t>
+  </si>
+  <si>
+    <t>D2_3_W21_2</t>
+  </si>
+  <si>
+    <t>D2_3_W22_2</t>
+  </si>
+  <si>
+    <t>D2_3_W23_2</t>
+  </si>
+  <si>
+    <t>D2_3_W24_2</t>
+  </si>
+  <si>
+    <t>D2_3_W25_2</t>
+  </si>
+  <si>
+    <t>D2_3_W26_2</t>
+  </si>
+  <si>
+    <t>D2_3_W27_2</t>
+  </si>
+  <si>
+    <t>D2_3_W28_2</t>
+  </si>
+  <si>
+    <t>D2_3_W29_2</t>
+  </si>
+  <si>
+    <t>D2_3_W30_2</t>
+  </si>
+  <si>
+    <t>D2_1_W1_3</t>
+  </si>
+  <si>
+    <t>D2_1_W2_3</t>
+  </si>
+  <si>
+    <t>D2_1_W3_3</t>
+  </si>
+  <si>
+    <t>D2_1_W4_3</t>
+  </si>
+  <si>
+    <t>D2_1_W5_3</t>
+  </si>
+  <si>
+    <t>D2_1_W6_3</t>
+  </si>
+  <si>
+    <t>D2_1_W7_3</t>
+  </si>
+  <si>
+    <t>D2_1_W8_3</t>
+  </si>
+  <si>
+    <t>D2_1_W9_3</t>
+  </si>
+  <si>
+    <t>D2_1_W10_3</t>
+  </si>
+  <si>
+    <t>D2_2_W11_3</t>
+  </si>
+  <si>
+    <t>D2_2_W12_3</t>
+  </si>
+  <si>
+    <t>D2_2_W13_3</t>
+  </si>
+  <si>
+    <t>D2_2_W14_3</t>
+  </si>
+  <si>
+    <t>D2_2_W15_3</t>
+  </si>
+  <si>
+    <t>D2_2_W16_3</t>
+  </si>
+  <si>
+    <t>D2_2_W17_3</t>
+  </si>
+  <si>
+    <t>D2_2_W18_3</t>
+  </si>
+  <si>
+    <t>D2_2_W19_3</t>
+  </si>
+  <si>
+    <t>D2_2_W20_3</t>
+  </si>
+  <si>
+    <t>D2_3_W21_3</t>
+  </si>
+  <si>
+    <t>D2_3_W22_3</t>
+  </si>
+  <si>
+    <t>D2_3_W23_3</t>
+  </si>
+  <si>
+    <t>D2_3_W24_3</t>
+  </si>
+  <si>
+    <t>D2_3_W25_3</t>
+  </si>
+  <si>
+    <t>D2_3_W26_3</t>
+  </si>
+  <si>
+    <t>D2_3_W27_3</t>
+  </si>
+  <si>
+    <t>D2_3_W28_3</t>
+  </si>
+  <si>
+    <t>D2_3_W29_3</t>
+  </si>
+  <si>
+    <t>D2_3_W30_3</t>
+  </si>
+  <si>
+    <t>D2_1_W1_4</t>
+  </si>
+  <si>
+    <t>D2_1_W2_4</t>
+  </si>
+  <si>
+    <t>D2_1_W3_4</t>
+  </si>
+  <si>
+    <t>D2_1_W4_4</t>
+  </si>
+  <si>
+    <t>D2_1_W5_4</t>
+  </si>
+  <si>
+    <t>D2_1_W6_4</t>
+  </si>
+  <si>
+    <t>D2_1_W7_4</t>
+  </si>
+  <si>
+    <t>D2_1_W8_4</t>
+  </si>
+  <si>
+    <t>D2_1_W9_4</t>
+  </si>
+  <si>
+    <t>D2_1_W10_4</t>
+  </si>
+  <si>
+    <t>D2_2_W11_4</t>
+  </si>
+  <si>
+    <t>D2_2_W12_4</t>
+  </si>
+  <si>
+    <t>D2_2_W13_4</t>
+  </si>
+  <si>
+    <t>D2_2_W14_4</t>
+  </si>
+  <si>
+    <t>D2_2_W15_4</t>
+  </si>
+  <si>
+    <t>D2_2_W16_4</t>
+  </si>
+  <si>
+    <t>D2_2_W17_4</t>
+  </si>
+  <si>
+    <t>D2_2_W18_4</t>
+  </si>
+  <si>
+    <t>D2_2_W19_4</t>
+  </si>
+  <si>
+    <t>D2_2_W20_4</t>
+  </si>
+  <si>
+    <t>D2_3_W21_4</t>
+  </si>
+  <si>
+    <t>D2_3_W22_4</t>
+  </si>
+  <si>
+    <t>D2_3_W23_4</t>
+  </si>
+  <si>
+    <t>D2_3_W24_4</t>
+  </si>
+  <si>
+    <t>D2_3_W25_4</t>
+  </si>
+  <si>
+    <t>D2_3_W26_4</t>
+  </si>
+  <si>
+    <t>D2_3_W27_4</t>
+  </si>
+  <si>
+    <t>D2_3_W28_4</t>
+  </si>
+  <si>
+    <t>D2_3_W29_4</t>
+  </si>
+  <si>
+    <t>D2_3_W30_4</t>
+  </si>
+  <si>
+    <t>D3_1_W1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_1_W2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_1_W3</t>
+  </si>
+  <si>
+    <t>D3_1_W4</t>
+  </si>
+  <si>
+    <t>D3_1_W5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_1_W6</t>
+  </si>
+  <si>
+    <t>D3_1_W7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_1_W8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_1_W9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_1_W10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_2_W11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_2_W12</t>
+  </si>
+  <si>
+    <t>D3_2_W13</t>
+  </si>
+  <si>
+    <t>D3_2_W14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_2_W15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_2_W16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_2_W17</t>
+  </si>
+  <si>
+    <t>D3_2_W18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_2_W19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_2_W20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_3_W21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_3_W22</t>
+  </si>
+  <si>
+    <t>D3_3_W23</t>
+  </si>
+  <si>
+    <t>D3_3_W24</t>
+  </si>
+  <si>
+    <t>D3_3_W25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_3_W26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_3_W27</t>
+  </si>
+  <si>
+    <t>D3_3_W28</t>
+  </si>
+  <si>
+    <t>D3_3_W29</t>
+  </si>
+  <si>
+    <t>D3_3_W30</t>
+  </si>
+  <si>
+    <t>D3_1_W1_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_1_W2_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_1_W3_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_1_W4_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_1_W5_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_1_W6_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_1_W7_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_1_W8_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_1_W9_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_1_W10_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_2_W11_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_2_W12_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_2_W13_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_2_W14_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_2_W15_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_2_W16_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_2_W17_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_2_W18_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_2_W19_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_2_W20_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_3_W21_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_3_W22_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_3_W23_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_3_W24_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_3_W25_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_3_W26_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_3_W27_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_3_W28_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_3_W29_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_3_W30_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3_1_W1_1</t>
+  </si>
+  <si>
+    <t>D3_1_W2_1</t>
+  </si>
+  <si>
+    <t>D3_1_W3_1</t>
+  </si>
+  <si>
+    <t>D3_1_W4_1</t>
+  </si>
+  <si>
+    <t>D3_1_W5_1</t>
+  </si>
+  <si>
+    <t>D3_1_W6_1</t>
+  </si>
+  <si>
+    <t>D3_1_W7_1</t>
+  </si>
+  <si>
+    <t>D3_1_W8_1</t>
+  </si>
+  <si>
+    <t>D3_1_W9_1</t>
+  </si>
+  <si>
+    <t>D3_1_W10_1</t>
+  </si>
+  <si>
+    <t>D3_2_W11_1</t>
+  </si>
+  <si>
+    <t>D3_2_W12_1</t>
+  </si>
+  <si>
+    <t>D3_2_W13_1</t>
+  </si>
+  <si>
+    <t>D3_2_W14_1</t>
+  </si>
+  <si>
+    <t>D3_2_W15_1</t>
+  </si>
+  <si>
+    <t>D3_2_W16_1</t>
+  </si>
+  <si>
+    <t>D3_2_W17_1</t>
+  </si>
+  <si>
+    <t>D3_2_W18_1</t>
+  </si>
+  <si>
+    <t>D3_2_W19_1</t>
+  </si>
+  <si>
+    <t>D3_2_W20_1</t>
+  </si>
+  <si>
+    <t>D3_3_W21_1</t>
+  </si>
+  <si>
+    <t>D3_3_W22_1</t>
+  </si>
+  <si>
+    <t>D3_3_W23_1</t>
+  </si>
+  <si>
+    <t>D3_3_W24_1</t>
+  </si>
+  <si>
+    <t>D3_3_W25_1</t>
+  </si>
+  <si>
+    <t>D3_3_W26_1</t>
+  </si>
+  <si>
+    <t>D3_3_W27_1</t>
+  </si>
+  <si>
+    <t>D3_3_W28_1</t>
+  </si>
+  <si>
+    <t>D3_3_W29_1</t>
+  </si>
+  <si>
+    <t>D3_3_W30_1</t>
+  </si>
+  <si>
+    <t>D3_1_W1_2</t>
+  </si>
+  <si>
+    <t>D3_1_W2_2</t>
+  </si>
+  <si>
+    <t>D3_1_W3_2</t>
+  </si>
+  <si>
+    <t>D3_1_W4_2</t>
+  </si>
+  <si>
+    <t>D3_1_W5_2</t>
+  </si>
+  <si>
+    <t>D3_1_W6_2</t>
+  </si>
+  <si>
+    <t>D3_1_W7_2</t>
+  </si>
+  <si>
+    <t>D3_1_W8_2</t>
+  </si>
+  <si>
+    <t>D3_1_W9_2</t>
+  </si>
+  <si>
+    <t>D3_1_W10_2</t>
+  </si>
+  <si>
+    <t>D3_2_W11_2</t>
+  </si>
+  <si>
+    <t>D3_2_W12_2</t>
+  </si>
+  <si>
+    <t>D3_2_W13_2</t>
+  </si>
+  <si>
+    <t>D3_2_W14_2</t>
+  </si>
+  <si>
+    <t>D3_2_W15_2</t>
+  </si>
+  <si>
+    <t>D3_2_W16_2</t>
+  </si>
+  <si>
+    <t>D3_2_W17_2</t>
+  </si>
+  <si>
+    <t>D3_2_W18_2</t>
+  </si>
+  <si>
+    <t>D3_2_W19_2</t>
+  </si>
+  <si>
+    <t>D3_2_W20_2</t>
+  </si>
+  <si>
+    <t>D3_3_W21_2</t>
+  </si>
+  <si>
+    <t>D3_3_W22_2</t>
+  </si>
+  <si>
+    <t>D3_3_W23_2</t>
+  </si>
+  <si>
+    <t>D3_3_W24_2</t>
+  </si>
+  <si>
+    <t>D3_3_W25_2</t>
+  </si>
+  <si>
+    <t>D3_3_W26_2</t>
+  </si>
+  <si>
+    <t>D3_3_W27_2</t>
+  </si>
+  <si>
+    <t>D3_3_W28_2</t>
+  </si>
+  <si>
+    <t>D3_3_W29_2</t>
+  </si>
+  <si>
+    <t>D3_3_W30_2</t>
+  </si>
+  <si>
+    <t>D3_1_W1_3</t>
+  </si>
+  <si>
+    <t>D3_1_W2_3</t>
+  </si>
+  <si>
+    <t>D3_1_W3_3</t>
+  </si>
+  <si>
+    <t>D3_1_W4_3</t>
+  </si>
+  <si>
+    <t>D3_1_W5_3</t>
+  </si>
+  <si>
+    <t>D3_1_W6_3</t>
+  </si>
+  <si>
+    <t>D3_1_W7_3</t>
+  </si>
+  <si>
+    <t>D3_1_W8_3</t>
+  </si>
+  <si>
+    <t>D3_1_W9_3</t>
+  </si>
+  <si>
+    <t>D3_1_W10_3</t>
+  </si>
+  <si>
+    <t>D3_2_W11_3</t>
+  </si>
+  <si>
+    <t>D3_2_W12_3</t>
+  </si>
+  <si>
+    <t>D3_2_W13_3</t>
+  </si>
+  <si>
+    <t>D3_2_W14_3</t>
+  </si>
+  <si>
+    <t>D3_2_W15_3</t>
+  </si>
+  <si>
+    <t>D3_2_W16_3</t>
+  </si>
+  <si>
+    <t>D3_2_W17_3</t>
+  </si>
+  <si>
+    <t>D3_2_W18_3</t>
+  </si>
+  <si>
+    <t>D3_2_W19_3</t>
+  </si>
+  <si>
+    <t>D3_2_W20_3</t>
+  </si>
+  <si>
+    <t>D3_3_W21_3</t>
+  </si>
+  <si>
+    <t>D3_3_W22_3</t>
+  </si>
+  <si>
+    <t>D3_3_W23_3</t>
+  </si>
+  <si>
+    <t>D3_3_W24_3</t>
+  </si>
+  <si>
+    <t>D3_3_W25_3</t>
+  </si>
+  <si>
+    <t>D3_3_W26_3</t>
+  </si>
+  <si>
+    <t>D3_3_W27_3</t>
+  </si>
+  <si>
+    <t>D3_3_W28_3</t>
+  </si>
+  <si>
+    <t>D3_3_W29_3</t>
+  </si>
+  <si>
+    <t>D3_3_W30_3</t>
+  </si>
+  <si>
+    <t>D3_1_W1_4</t>
+  </si>
+  <si>
+    <t>D3_1_W2_4</t>
+  </si>
+  <si>
+    <t>D3_1_W3_4</t>
+  </si>
+  <si>
+    <t>D3_1_W4_4</t>
+  </si>
+  <si>
+    <t>D3_1_W5_4</t>
+  </si>
+  <si>
+    <t>D3_1_W6_4</t>
+  </si>
+  <si>
+    <t>D3_1_W7_4</t>
+  </si>
+  <si>
+    <t>D3_1_W8_4</t>
+  </si>
+  <si>
+    <t>D3_1_W9_4</t>
+  </si>
+  <si>
+    <t>D3_1_W10_4</t>
+  </si>
+  <si>
+    <t>D3_2_W11_4</t>
+  </si>
+  <si>
+    <t>D3_2_W12_4</t>
+  </si>
+  <si>
+    <t>D3_2_W13_4</t>
+  </si>
+  <si>
+    <t>D3_2_W14_4</t>
+  </si>
+  <si>
+    <t>D3_2_W15_4</t>
+  </si>
+  <si>
+    <t>D3_2_W16_4</t>
+  </si>
+  <si>
+    <t>D3_2_W17_4</t>
+  </si>
+  <si>
+    <t>D3_2_W18_4</t>
+  </si>
+  <si>
+    <t>D3_2_W19_4</t>
+  </si>
+  <si>
+    <t>D3_2_W20_4</t>
+  </si>
+  <si>
+    <t>D3_3_W21_4</t>
+  </si>
+  <si>
+    <t>D3_3_W22_4</t>
+  </si>
+  <si>
+    <t>D3_3_W23_4</t>
+  </si>
+  <si>
+    <t>D3_3_W24_4</t>
+  </si>
+  <si>
+    <t>D3_3_W25_4</t>
+  </si>
+  <si>
+    <t>D3_3_W26_4</t>
+  </si>
+  <si>
+    <t>D3_3_W27_4</t>
+  </si>
+  <si>
+    <t>D3_3_W28_4</t>
+  </si>
+  <si>
+    <t>D3_3_W29_4</t>
+  </si>
+  <si>
+    <t>D3_3_W30_4</t>
   </si>
 </sst>
 </file>
@@ -1696,7 +3553,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1706,6 +3563,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1739,7 +3602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1758,10 +3621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2078,20 +3938,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8BA7C2-E49A-4CB4-98B5-49DA0D533A44}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B31"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="6" width="11.19921875" customWidth="1"/>
+    <col min="13" max="17" width="11.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2100,43 +3964,46 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>552</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2152,41 +4019,44 @@
       <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M2" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2202,41 +4072,44 @@
       <c r="E3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M3" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -2252,41 +4125,44 @@
       <c r="E4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M4" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -2302,41 +4178,44 @@
       <c r="E5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M5" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -2352,41 +4231,44 @@
       <c r="E6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M6" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -2402,41 +4284,44 @@
       <c r="E7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M7" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -2452,41 +4337,44 @@
       <c r="E8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M8" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2502,41 +4390,44 @@
       <c r="E9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="K9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M9" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -2552,41 +4443,44 @@
       <c r="E10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M10" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -2602,41 +4496,44 @@
       <c r="E11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="K11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M11" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -2652,41 +4549,44 @@
       <c r="E12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M12" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -2702,41 +4602,44 @@
       <c r="E13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M13" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -2752,41 +4655,44 @@
       <c r="E14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="L14" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M14" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -2802,41 +4708,44 @@
       <c r="E15" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="K15" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="L15" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M15" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -2852,41 +4761,44 @@
       <c r="E16" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M16" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -2902,41 +4814,44 @@
       <c r="E17" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="K17" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="L17" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="L17" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M17" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -2952,41 +4867,44 @@
       <c r="E18" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="K18" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="L18" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="L18" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M18" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -3002,41 +4920,44 @@
       <c r="E19" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="K19" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="L19" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M19" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>2</v>
       </c>
@@ -3052,41 +4973,44 @@
       <c r="E20" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="K20" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="L20" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="L20" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M20" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>2</v>
       </c>
@@ -3102,41 +5026,44 @@
       <c r="E21" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="K21" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="L21" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="L21" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M21" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>3</v>
       </c>
@@ -3152,41 +5079,44 @@
       <c r="E22" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="K22" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="L22" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="L22" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M22" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
         <v>3</v>
       </c>
@@ -3202,41 +5132,44 @@
       <c r="E23" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="K23" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="L23" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="L23" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M23" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>3</v>
       </c>
@@ -3252,41 +5185,44 @@
       <c r="E24" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="K24" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="L24" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="L24" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M24" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
         <v>3</v>
       </c>
@@ -3302,41 +5238,44 @@
       <c r="E25" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="J25" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="K25" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="L25" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="L25" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M25" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
         <v>3</v>
       </c>
@@ -3352,41 +5291,44 @@
       <c r="E26" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="I26" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="K26" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="L26" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M26" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>3</v>
       </c>
@@ -3402,41 +5344,44 @@
       <c r="E27" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="I27" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="J27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="K27" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="L27" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="L27" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M27" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>3</v>
       </c>
@@ -3452,41 +5397,44 @@
       <c r="E28" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="J28" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="K28" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="L28" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="L28" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M28" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>3</v>
       </c>
@@ -3502,41 +5450,44 @@
       <c r="E29" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="I29" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="J29" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="K29" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="L29" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="L29" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M29" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>3</v>
       </c>
@@ -3552,41 +5503,44 @@
       <c r="E30" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="J30" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="K30" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="L30" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="L30" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M30" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
         <v>3</v>
       </c>
@@ -3602,38 +5556,41 @@
       <c r="E31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="I31" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="J31" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="K31" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="L31" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L31" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>348</v>
+      <c r="M31" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -3644,20 +5601,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5369DE2A-FF06-40E4-9BDE-8ED8465D58C3}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="13" max="17" width="11.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3666,43 +5627,46 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>552</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3718,41 +5682,44 @@
       <c r="E2" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M2" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -3768,41 +5735,44 @@
       <c r="E3" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M3" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -3818,41 +5788,44 @@
       <c r="E4" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M4" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -3868,41 +5841,44 @@
       <c r="E5" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M5" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -3918,41 +5894,44 @@
       <c r="E6" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M6" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -3968,41 +5947,44 @@
       <c r="E7" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M7" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -4018,41 +6000,44 @@
       <c r="E8" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M8" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -4068,41 +6053,44 @@
       <c r="E9" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="K9" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M9" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -4118,41 +6106,44 @@
       <c r="E10" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M10" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -4168,41 +6159,44 @@
       <c r="E11" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="K11" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M11" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -4218,41 +6212,44 @@
       <c r="E12" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M12" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -4268,41 +6265,44 @@
       <c r="E13" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M13" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -4318,41 +6318,44 @@
       <c r="E14" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="L14" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M14" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -4368,41 +6371,44 @@
       <c r="E15" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="K15" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M15" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -4418,41 +6424,44 @@
       <c r="E16" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M16" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -4468,41 +6477,44 @@
       <c r="E17" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="K17" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="L17" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M17" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -4518,41 +6530,44 @@
       <c r="E18" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="K18" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="L18" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M18" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -4568,41 +6583,44 @@
       <c r="E19" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="K19" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="L19" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M19" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>2</v>
       </c>
@@ -4618,41 +6636,44 @@
       <c r="E20" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="K20" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="L20" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M20" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>2</v>
       </c>
@@ -4668,41 +6689,44 @@
       <c r="E21" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="K21" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="L21" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="L21" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M21" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>3</v>
       </c>
@@ -4718,41 +6742,44 @@
       <c r="E22" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="K22" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="L22" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M22" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
         <v>3</v>
       </c>
@@ -4768,41 +6795,44 @@
       <c r="E23" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="K23" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="L23" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="L23" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M23" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>3</v>
       </c>
@@ -4818,41 +6848,44 @@
       <c r="E24" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="K24" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="L24" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="L24" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M24" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
         <v>3</v>
       </c>
@@ -4868,41 +6901,44 @@
       <c r="E25" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="J25" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="K25" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="L25" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M25" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
         <v>3</v>
       </c>
@@ -4918,41 +6954,44 @@
       <c r="E26" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="I26" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="K26" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="L26" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M26" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>3</v>
       </c>
@@ -4968,41 +7007,44 @@
       <c r="E27" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="I27" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="J27" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="K27" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="L27" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="L27" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M27" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>3</v>
       </c>
@@ -5018,41 +7060,44 @@
       <c r="E28" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="J28" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="K28" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="L28" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="L28" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M28" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>3</v>
       </c>
@@ -5068,41 +7113,44 @@
       <c r="E29" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="I29" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="J29" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="K29" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="L29" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M29" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>3</v>
       </c>
@@ -5118,41 +7166,44 @@
       <c r="E30" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="J30" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="K30" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="L30" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="L30" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M30" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
         <v>3</v>
       </c>
@@ -5168,62 +7219,70 @@
       <c r="E31" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="I31" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="J31" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="K31" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="L31" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="L31" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>348</v>
+      <c r="M31" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>882</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8DAADD-3525-4FFF-BBE5-E7DA6330ED09}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:K31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="6" width="11.19921875" customWidth="1"/>
+    <col min="13" max="17" width="11.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -5232,43 +7291,46 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>552</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -5276,49 +7338,52 @@
         <v>60</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D2" s="4">
         <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="F2" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>355</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+        <v>352</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -5326,49 +7391,52 @@
         <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D3" s="4">
         <v>3</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="F3" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>361</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+        <v>358</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -5376,49 +7444,52 @@
         <v>62</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D4" s="4">
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="F4" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>367</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+        <v>364</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -5426,49 +7497,52 @@
         <v>63</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D5" s="4">
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F5" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>373</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+        <v>370</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -5476,49 +7550,52 @@
         <v>64</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="F6" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>379</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+        <v>376</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -5526,49 +7603,52 @@
         <v>65</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="F7" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>385</v>
-      </c>
       <c r="H7" s="5" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+        <v>382</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -5576,49 +7656,52 @@
         <v>66</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="F8" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>391</v>
-      </c>
       <c r="H8" s="5" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+        <v>388</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -5626,49 +7709,52 @@
         <v>67</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D9" s="4">
         <v>3</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="F9" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>397</v>
-      </c>
       <c r="H9" s="5" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+        <v>374</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -5676,49 +7762,52 @@
         <v>68</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="F10" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>401</v>
-      </c>
       <c r="H10" s="5" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+        <v>398</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -5726,49 +7815,52 @@
         <v>69</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D11" s="4">
         <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="F11" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="H11" s="5" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+        <v>402</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -5776,49 +7868,52 @@
         <v>70</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="F12" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>411</v>
-      </c>
       <c r="H12" s="5" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+        <v>408</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -5826,49 +7921,52 @@
         <v>71</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D13" s="4">
         <v>3</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F13" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>417</v>
-      </c>
       <c r="H13" s="5" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+        <v>414</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -5876,49 +7974,52 @@
         <v>72</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="F14" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>359</v>
-      </c>
       <c r="H14" s="5" t="s">
-        <v>423</v>
+        <v>353</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+        <v>419</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -5926,49 +8027,52 @@
         <v>73</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="F15" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>428</v>
-      </c>
       <c r="H15" s="5" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+        <v>425</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -5976,49 +8080,52 @@
         <v>74</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="F16" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>434</v>
-      </c>
       <c r="H16" s="5" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+        <v>431</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -6026,49 +8133,52 @@
         <v>75</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="F17" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>440</v>
-      </c>
       <c r="H17" s="5" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>441</v>
+        <v>381</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+        <v>436</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -6076,49 +8186,52 @@
         <v>76</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D18" s="4">
         <v>3</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="F18" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>445</v>
-      </c>
       <c r="H18" s="5" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+        <v>442</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -6126,49 +8239,52 @@
         <v>77</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="F19" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>451</v>
-      </c>
       <c r="H19" s="5" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+        <v>448</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>2</v>
       </c>
@@ -6176,49 +8292,52 @@
         <v>78</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="F20" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>457</v>
-      </c>
       <c r="H20" s="5" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+        <v>453</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>2</v>
       </c>
@@ -6226,49 +8345,52 @@
         <v>79</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D21" s="4">
         <v>3</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="F21" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>462</v>
-      </c>
       <c r="H21" s="5" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+        <v>459</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>3</v>
       </c>
@@ -6276,49 +8398,52 @@
         <v>80</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D22" s="4">
         <v>3</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M22" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
         <v>3</v>
       </c>
@@ -6326,49 +8451,52 @@
         <v>81</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D23" s="4">
         <v>3</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="F23" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>475</v>
-      </c>
       <c r="H23" s="5" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+        <v>472</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>3</v>
       </c>
@@ -6376,49 +8504,52 @@
         <v>82</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D24" s="4">
         <v>3</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="L24" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M24" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
         <v>3</v>
       </c>
@@ -6426,49 +8557,52 @@
         <v>83</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D25" s="4">
         <v>3</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="F25" s="5" t="s">
         <v>481</v>
       </c>
+      <c r="F25" s="4" t="s">
+        <v>906</v>
+      </c>
       <c r="G25" s="5" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+        <v>485</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
         <v>3</v>
       </c>
@@ -6476,49 +8610,52 @@
         <v>84</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D26" s="4">
         <v>3</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="F26" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>494</v>
-      </c>
       <c r="H26" s="5" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+        <v>491</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>3</v>
       </c>
@@ -6526,49 +8663,52 @@
         <v>85</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D27" s="4">
         <v>3</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="F27" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>500</v>
-      </c>
       <c r="H27" s="5" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+        <v>497</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>3</v>
       </c>
@@ -6576,49 +8716,52 @@
         <v>86</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D28" s="4">
         <v>3</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="F28" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>506</v>
-      </c>
       <c r="H28" s="5" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+        <v>503</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>3</v>
       </c>
@@ -6626,49 +8769,52 @@
         <v>87</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D29" s="4">
         <v>3</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="F29" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>512</v>
-      </c>
       <c r="H29" s="5" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N29" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+        <v>509</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>3</v>
       </c>
@@ -6676,49 +8822,52 @@
         <v>88</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D30" s="4">
         <v>3</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="F30" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>518</v>
-      </c>
       <c r="H30" s="5" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N30" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+        <v>515</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
         <v>3</v>
       </c>
@@ -6726,46 +8875,49 @@
         <v>89</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D31" s="4">
         <v>3</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="F31" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>524</v>
-      </c>
       <c r="H31" s="5" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>348</v>
+        <v>521</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>1062</v>
       </c>
     </row>
   </sheetData>
